--- a/output/PACIFICO_22354046000141.xlsx
+++ b/output/PACIFICO_22354046000141.xlsx
@@ -1098,10 +1098,10 @@
         <v>44165</v>
       </c>
       <c r="B65">
-        <v>0.82326666</v>
+        <v>0.82279788</v>
       </c>
       <c r="C65">
-        <v>0.01454971467694999</v>
+        <v>0.0142888638504195</v>
       </c>
     </row>
   </sheetData>

--- a/output/PACIFICO_22354046000141.xlsx
+++ b/output/PACIFICO_22354046000141.xlsx
@@ -14,12 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>PACIFICO MACRO FUNDO DE INVESTIMENTO EM COTAS DE FUNDOS DE INVESTIMENTO MULTIMERCADO</t>
-  </si>
-  <si>
-    <t>mensal</t>
   </si>
   <si>
     <t>d</t>
@@ -386,24 +383,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C65"/>
+  <dimension ref="A1:B65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="2">
         <v>42247</v>
       </c>
@@ -411,697 +405,508 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:2">
       <c r="A3" s="2">
         <v>42277</v>
       </c>
       <c r="B3">
         <v>0.03483049999999999</v>
       </c>
-      <c r="C3">
-        <v>0.03483049999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" s="2">
         <v>42308</v>
       </c>
       <c r="B4">
-        <v>0.04825450000000009</v>
-      </c>
-      <c r="C4">
         <v>0.01297217273746765</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:2">
       <c r="A5" s="2">
         <v>42338</v>
       </c>
       <c r="B5">
-        <v>0.05511329999999992</v>
-      </c>
-      <c r="C5">
         <v>0.006543067547050585</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:2">
       <c r="A6" s="2">
         <v>42369</v>
       </c>
       <c r="B6">
-        <v>0.06137550000000003</v>
-      </c>
-      <c r="C6">
         <v>0.005935097207096174</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:2">
       <c r="A7" s="2">
         <v>42400</v>
       </c>
       <c r="B7">
-        <v>0.06264090000000011</v>
-      </c>
-      <c r="C7">
         <v>0.001192226502307658</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:2">
       <c r="A8" s="2">
         <v>42429</v>
       </c>
       <c r="B8">
-        <v>0.06232229999999994</v>
-      </c>
-      <c r="C8">
         <v>-0.0002998190639944553</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:2">
       <c r="A9" s="2">
         <v>42460</v>
       </c>
       <c r="B9">
-        <v>0.04999440000000011</v>
-      </c>
-      <c r="C9">
         <v>-0.01160467025873391</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:2">
       <c r="A10" s="2">
         <v>42490</v>
       </c>
       <c r="B10">
-        <v>0.1120429999999999</v>
-      </c>
-      <c r="C10">
         <v>0.05909421993107755</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:2">
       <c r="A11" s="2">
         <v>42521</v>
       </c>
       <c r="B11">
-        <v>0.07203859999999995</v>
-      </c>
-      <c r="C11">
         <v>-0.03597378878334734</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:2">
       <c r="A12" s="2">
         <v>42551</v>
       </c>
       <c r="B12">
-        <v>0.1653614999999999</v>
-      </c>
-      <c r="C12">
         <v>0.08705180951506786</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:2">
       <c r="A13" s="2">
         <v>42582</v>
       </c>
       <c r="B13">
-        <v>0.2064667</v>
-      </c>
-      <c r="C13">
         <v>0.03527248840810349</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:2">
       <c r="A14" s="2">
         <v>42613</v>
       </c>
       <c r="B14">
-        <v>0.22810614</v>
-      </c>
-      <c r="C14">
         <v>0.01793620992605915</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:2">
       <c r="A15" s="2">
         <v>42643</v>
       </c>
       <c r="B15">
-        <v>0.2474909599999999</v>
-      </c>
-      <c r="C15">
         <v>0.0157843197494314</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:2">
       <c r="A16" s="2">
         <v>42674</v>
       </c>
       <c r="B16">
-        <v>0.3011864200000001</v>
-      </c>
-      <c r="C16">
         <v>0.04304276481490499</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:2">
       <c r="A17" s="2">
         <v>42704</v>
       </c>
       <c r="B17">
-        <v>0.26591294</v>
-      </c>
-      <c r="C17">
         <v>-0.02710870591471437</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:2">
       <c r="A18" s="2">
         <v>42735</v>
       </c>
       <c r="B18">
-        <v>0.2957488500000001</v>
-      </c>
-      <c r="C18">
         <v>0.02356869027659991</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:2">
       <c r="A19" s="2">
         <v>42766</v>
       </c>
       <c r="B19">
-        <v>0.3285838000000001</v>
-      </c>
-      <c r="C19">
         <v>0.02534052027134726</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:2">
       <c r="A20" s="2">
         <v>42794</v>
       </c>
       <c r="B20">
-        <v>0.3498095400000001</v>
-      </c>
-      <c r="C20">
         <v>0.01597621467309773</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:2">
       <c r="A21" s="2">
         <v>42825</v>
       </c>
       <c r="B21">
-        <v>0.3620232299999999</v>
-      </c>
-      <c r="C21">
         <v>0.009048454347122092</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:2">
       <c r="A22" s="2">
         <v>42855</v>
       </c>
       <c r="B22">
-        <v>0.3611498500000001</v>
-      </c>
-      <c r="C22">
         <v>-0.0006412372276497491</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:2">
       <c r="A23" s="2">
         <v>42886</v>
       </c>
       <c r="B23">
-        <v>0.3427977600000001</v>
-      </c>
-      <c r="C23">
         <v>-0.01348278442671103</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:2">
       <c r="A24" s="2">
         <v>42916</v>
       </c>
       <c r="B24">
-        <v>0.3528963000000001</v>
-      </c>
-      <c r="C24">
         <v>0.007520521928782387</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:2">
       <c r="A25" s="2">
         <v>42947</v>
       </c>
       <c r="B25">
-        <v>0.4181706199999999</v>
-      </c>
-      <c r="C25">
         <v>0.04824783688151113</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:2">
       <c r="A26" s="2">
         <v>42978</v>
       </c>
       <c r="B26">
-        <v>0.4522048700000001</v>
-      </c>
-      <c r="C26">
         <v>0.02399869911280494</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:2">
       <c r="A27" s="2">
         <v>43008</v>
       </c>
       <c r="B27">
-        <v>0.4794713399999999</v>
-      </c>
-      <c r="C27">
         <v>0.01877591141806301</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:2">
       <c r="A28" s="2">
         <v>43039</v>
       </c>
       <c r="B28">
-        <v>0.49100469</v>
-      </c>
-      <c r="C28">
         <v>0.007795588659392338</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:2">
       <c r="A29" s="2">
         <v>43069</v>
       </c>
       <c r="B29">
-        <v>0.4839590499999999</v>
-      </c>
-      <c r="C29">
         <v>-0.004725431145357506</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:2">
       <c r="A30" s="2">
         <v>43100</v>
       </c>
       <c r="B30">
-        <v>0.5061922700000001</v>
-      </c>
-      <c r="C30">
         <v>0.01498236760643779</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:2">
       <c r="A31" s="2">
         <v>43131</v>
       </c>
       <c r="B31">
-        <v>0.5136505499999999</v>
-      </c>
-      <c r="C31">
         <v>0.004951744972107486</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:2">
       <c r="A32" s="2">
         <v>43159</v>
       </c>
       <c r="B32">
-        <v>0.53581162</v>
-      </c>
-      <c r="C32">
         <v>0.01464080992802486</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:2">
       <c r="A33" s="2">
         <v>43190</v>
       </c>
       <c r="B33">
-        <v>0.57205181</v>
-      </c>
-      <c r="C33">
         <v>0.02359676768170305</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:2">
       <c r="A34" s="2">
         <v>43220</v>
       </c>
       <c r="B34">
-        <v>0.5928632300000001</v>
-      </c>
-      <c r="C34">
         <v>0.01323838048314707</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:2">
       <c r="A35" s="2">
         <v>43251</v>
       </c>
       <c r="B35">
-        <v>0.57866222</v>
-      </c>
-      <c r="C35">
         <v>-0.008915398216581383</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:2">
       <c r="A36" s="2">
         <v>43281</v>
       </c>
       <c r="B36">
-        <v>0.5873736700000001</v>
-      </c>
-      <c r="C36">
         <v>0.005518248229187339</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:2">
       <c r="A37" s="2">
         <v>43312</v>
       </c>
       <c r="B37">
-        <v>0.60587407</v>
-      </c>
-      <c r="C37">
         <v>0.01165472273456558</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:2">
       <c r="A38" s="2">
         <v>43343</v>
       </c>
       <c r="B38">
-        <v>0.5895508</v>
-      </c>
-      <c r="C38">
         <v>-0.01016472605476471</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:2">
       <c r="A39" s="2">
         <v>43373</v>
       </c>
       <c r="B39">
-        <v>0.58889167</v>
-      </c>
-      <c r="C39">
         <v>-0.0004146643190013899</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:2">
       <c r="A40" s="2">
         <v>43404</v>
       </c>
       <c r="B40">
-        <v>0.6179086</v>
-      </c>
-      <c r="C40">
         <v>0.01826237153096799</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:2">
       <c r="A41" s="2">
         <v>43434</v>
       </c>
       <c r="B41">
-        <v>0.6203464400000001</v>
-      </c>
-      <c r="C41">
         <v>0.001506784746678536</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:2">
       <c r="A42" s="2">
         <v>43465</v>
       </c>
       <c r="B42">
-        <v>0.63476256</v>
-      </c>
-      <c r="C42">
         <v>0.008896936879745354</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:2">
       <c r="A43" s="2">
         <v>43496</v>
       </c>
       <c r="B43">
-        <v>0.6899560199999999</v>
-      </c>
-      <c r="C43">
         <v>0.03376237097086432</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:2">
       <c r="A44" s="2">
         <v>43524</v>
       </c>
       <c r="B44">
-        <v>0.6814463399999999</v>
-      </c>
-      <c r="C44">
         <v>-0.005035444650210441</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:2">
       <c r="A45" s="2">
         <v>43555</v>
       </c>
       <c r="B45">
-        <v>0.66613831</v>
-      </c>
-      <c r="C45">
         <v>-0.009104084760742315</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:2">
       <c r="A46" s="2">
         <v>43585</v>
       </c>
       <c r="B46">
-        <v>0.6758310199999999</v>
-      </c>
-      <c r="C46">
         <v>0.005817470219504184</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:2">
       <c r="A47" s="2">
         <v>43616</v>
       </c>
       <c r="B47">
-        <v>0.6886122699999999</v>
-      </c>
-      <c r="C47">
         <v>0.00762681311389013</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:2">
       <c r="A48" s="2">
         <v>43646</v>
       </c>
       <c r="B48">
-        <v>0.7180057799999999</v>
-      </c>
-      <c r="C48">
         <v>0.01740690300681047</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:2">
       <c r="A49" s="2">
         <v>43677</v>
       </c>
       <c r="B49">
-        <v>0.74213917</v>
-      </c>
-      <c r="C49">
         <v>0.01404732759397365</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:2">
       <c r="A50" s="2">
         <v>43708</v>
       </c>
       <c r="B50">
-        <v>0.74300443</v>
-      </c>
-      <c r="C50">
         <v>0.0004966652578048958</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:2">
       <c r="A51" s="2">
         <v>43738</v>
       </c>
       <c r="B51">
-        <v>0.7663128800000001</v>
-      </c>
-      <c r="C51">
         <v>0.01337257071687414</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:2">
       <c r="A52" s="2">
         <v>43769</v>
       </c>
       <c r="B52">
-        <v>0.7899179199999999</v>
-      </c>
-      <c r="C52">
         <v>0.01336401962941003</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:2">
       <c r="A53" s="2">
         <v>43799</v>
       </c>
       <c r="B53">
-        <v>0.7889419499999999</v>
-      </c>
-      <c r="C53">
         <v>-0.0005452596396152698</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:2">
       <c r="A54" s="2">
         <v>43830</v>
       </c>
       <c r="B54">
-        <v>0.82268294</v>
-      </c>
-      <c r="C54">
         <v>0.01886086354003824</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:2">
       <c r="A55" s="2">
         <v>43861</v>
       </c>
       <c r="B55">
-        <v>0.8240261099999999</v>
-      </c>
-      <c r="C55">
         <v>0.0007369191703741063</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:2">
       <c r="A56" s="2">
         <v>43890</v>
       </c>
       <c r="B56">
-        <v>0.81885881</v>
-      </c>
-      <c r="C56">
         <v>-0.002832909009180762</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:2">
       <c r="A57" s="2">
         <v>43921</v>
       </c>
       <c r="B57">
-        <v>0.7782567600000001</v>
-      </c>
-      <c r="C57">
         <v>-0.0223228157000267</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:2">
       <c r="A58" s="2">
         <v>43951</v>
       </c>
       <c r="B58">
-        <v>0.80846182</v>
-      </c>
-      <c r="C58">
         <v>0.01698576981650279</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:2">
       <c r="A59" s="2">
         <v>43982</v>
       </c>
       <c r="B59">
-        <v>0.82979501</v>
-      </c>
-      <c r="C59">
         <v>0.01179631760210453</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:2">
       <c r="A60" s="2">
         <v>44012</v>
       </c>
       <c r="B60">
-        <v>0.83731887</v>
-      </c>
-      <c r="C60">
         <v>0.004111859502775594</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:2">
       <c r="A61" s="2">
         <v>44043</v>
       </c>
       <c r="B61">
-        <v>0.85172234</v>
-      </c>
-      <c r="C61">
         <v>0.007839395891035439</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:2">
       <c r="A62" s="2">
         <v>44074</v>
       </c>
       <c r="B62">
-        <v>0.8338061400000001</v>
-      </c>
-      <c r="C62">
         <v>-0.009675424664369436</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:2">
       <c r="A63" s="2">
         <v>44104</v>
       </c>
       <c r="B63">
-        <v>0.8057784299999999</v>
-      </c>
-      <c r="C63">
         <v>-0.0152839001836913</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:2">
       <c r="A64" s="2">
         <v>44135</v>
       </c>
       <c r="B64">
-        <v>0.79711909</v>
-      </c>
-      <c r="C64">
         <v>-0.004795350224667372</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:2">
       <c r="A65" s="2">
         <v>44165</v>
       </c>
       <c r="B65">
-        <v>0.82279788</v>
-      </c>
-      <c r="C65">
-        <v>0.0142888638504195</v>
+        <v>0.01104198386763544</v>
       </c>
     </row>
   </sheetData>
